--- a/data/接口用例.xlsx
+++ b/data/接口用例.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'name': '小明', 'age': 18, 'id': '1', 'code': 200}</t>
+          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': '1'}</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '没有这个用户', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '没有这个用户'}</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>{'name': '小明', 'age': 18, 'id': 1, 'code': 200}</t>
+          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
         </is>
       </c>
       <c r="M4" s="1" t="n"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '没有这个用户', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '没有这个用户'}</t>
         </is>
       </c>
       <c r="M5" s="1" t="n"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>{'name': '小明', 'age': 18, 'id': '1', 'code': 200}</t>
+          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': '1'}</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '没有这个用户', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '没有这个用户'}</t>
         </is>
       </c>
       <c r="M7" s="1" t="n"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>{'name': '小明', 'age': 18, 'id': 1, 'code': 200}</t>
+          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '没有这个用户', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '没有这个用户'}</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>{'name': '小明', 'age': 18, 'id': 1, 'code': 200}</t>
+          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '请设置Content-Type为application/json', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '请设置Content-Type为application/json'}</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '请设置Content-Type为application/json', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '请设置Content-Type为application/json'}</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '请设置Content-Type为application/json', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '请设置Content-Type为application/json'}</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '请设置Content-Type为application/json', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '请设置Content-Type为application/json'}</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '请设置Content-Type为application/json', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '请设置Content-Type为application/json'}</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '需要认证', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '需要认证'}</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '需要认证', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '需要认证'}</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '需要认证', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '需要认证'}</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '需要认证', 'code': 500}</t>
+          <t>{'code': 500, 'msg': '需要认证'}</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'msg': 'cookie认证失败', 'code': 500}</t>
+          <t>{'code': 500, 'msg': 'cookie认证失败'}</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>{'msg': 'cookie认证失败', 'code': 500}</t>
+          <t>{'code': 500, 'msg': 'cookie认证失败'}</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>{'msg': 'cookie认证失败', 'code': 500}</t>
+          <t>{'code': 500, 'msg': 'cookie认证失败'}</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>{'msg': 'cookie认证失败', 'code': 500}</t>
+          <t>{'code': 500, 'msg': 'cookie认证失败'}</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'success': '未上传文件', 'code': 500}</t>
+          <t>{'code': 500, 'success': '未上传文件'}</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>{'success': '未上传文件', 'code': 500}</t>
+          <t>{'code': 500, 'success': '未上传文件'}</t>
         </is>
       </c>
       <c r="M3" s="1" t="n"/>

--- a/data/接口用例.xlsx
+++ b/data/接口用例.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': '1'}</t>
+          <t>{'age': 18, 'name': '小明', 'id': '1', 'code': 200}</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
+          <t>{'age': 18, 'name': '小明', 'id': 1, 'code': 200}</t>
         </is>
       </c>
       <c r="M4" s="1" t="n"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': '1'}</t>
+          <t>{'age': 18, 'name': '小明', 'id': '1', 'code': 200}</t>
         </is>
       </c>
       <c r="M6" s="1" t="n"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
+          <t>{'age': 18, 'name': '小明', 'id': 1, 'code': 200}</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>{'code': 200, 'age': 18, 'name': '小明', 'id': 1}</t>
+          <t>{'age': 18, 'name': '小明', 'id': 1, 'code': 200}</t>
         </is>
       </c>
       <c r="M10" s="1" t="n"/>
